--- a/doc/手順書/Net設定.xlsx
+++ b/doc/手順書/Net設定.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\AWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lisl\Documents\GitHub\aws\doc\手順書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E22E83-861E-4E55-8C89-F5651C909F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5E1A21-047C-4474-AD0F-9CDDE5DDEA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,10 +1217,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:A195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
@@ -1267,8 +1270,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>